--- a/mapping/ENVO_SBO.xlsx
+++ b/mapping/ENVO_SBO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="164">
   <si>
     <t>ENVO_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>SBO_DESC</t>
   </si>
   <si>
+    <t>SBO_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
   </si>
   <si>
@@ -67,9 +70,147 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000582</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000584</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_03000117</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000752</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001264</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000597</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000666</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000740</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000746</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000745</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000816</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000843</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000855</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000861</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000869</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000883</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000884</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001269</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000885</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000886</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000887</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000888</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000889</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000890</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000891</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000892</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000893</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000894</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000939</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000979</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000980</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001263</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001300</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001363</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03400001</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001382</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001384</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001383</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001519</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001520</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001521</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001558</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03400002</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03000145</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03400016</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501210</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03510038</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000080</t>
   </si>
   <si>
@@ -115,9 +256,147 @@
     <t>{'label': 'polysaccharide', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_18154'}</t>
   </si>
   <si>
+    <t>{'label': 'time', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000582'}</t>
+  </si>
+  <si>
+    <t>{'label': 'time', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000584'}</t>
+  </si>
+  <si>
     <t>{'label': 'channel', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03000117'}</t>
   </si>
   <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000752'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001264'}</t>
+  </si>
+  <si>
+    <t>{'label': 'pressure', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000597'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000666'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000740'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000746'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000745'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000816'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000843'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000855'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000861'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000869'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000883'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000884'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001269'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000885'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000886'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000887'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000888'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000889'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000890'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000891'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000892'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000893'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000894'}</t>
+  </si>
+  <si>
+    <t>{'label': 'time', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000939'}</t>
+  </si>
+  <si>
+    <t>{'label': 'channel', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000979'}</t>
+  </si>
+  <si>
+    <t>{'label': 'channel', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000980'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001263'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001300'}</t>
+  </si>
+  <si>
+    <t>{'label': 'volume', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001363'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03400001'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001382'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001384'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001383'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001519'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001520'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001521'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001558'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03400002'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03000145'}</t>
+  </si>
+  <si>
+    <t>{'label': 'area', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03400016'}</t>
+  </si>
+  <si>
+    <t>{'label': 'control', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03501210'}</t>
+  </si>
+  <si>
+    <t>{'label': 'volume', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03510038'}</t>
+  </si>
+  <si>
     <t>{'label': 'amplitude', 'prefLabel': None, 'altLabel': None, 'name': 'PATO_0000080'}</t>
   </si>
   <si>
@@ -166,6 +445,9 @@
     <t>http://biomodels.net/SBO/SBO_0000242</t>
   </si>
   <si>
+    <t>http://biomodels.net/SBO/SBO_0000168</t>
+  </si>
+  <si>
     <t>http://biomodels.net/SBO/SBO_0000492</t>
   </si>
   <si>
@@ -214,10 +496,16 @@
     <t>{'label': 'channel'}</t>
   </si>
   <si>
+    <t>{'label': 'control'}</t>
+  </si>
+  <si>
     <t>{'label': 'amplitude'}</t>
   </si>
   <si>
     <t>{'label': 'duration'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -588,13 +876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,277 +895,1248 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>151</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>67</v>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -914,6 +2173,98 @@
     <hyperlink ref="D16" r:id="rId30"/>
     <hyperlink ref="B17" r:id="rId31"/>
     <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="B18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="B19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="B20" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId38"/>
+    <hyperlink ref="B21" r:id="rId39"/>
+    <hyperlink ref="D21" r:id="rId40"/>
+    <hyperlink ref="B22" r:id="rId41"/>
+    <hyperlink ref="D22" r:id="rId42"/>
+    <hyperlink ref="B23" r:id="rId43"/>
+    <hyperlink ref="D23" r:id="rId44"/>
+    <hyperlink ref="B24" r:id="rId45"/>
+    <hyperlink ref="D24" r:id="rId46"/>
+    <hyperlink ref="B25" r:id="rId47"/>
+    <hyperlink ref="D25" r:id="rId48"/>
+    <hyperlink ref="B26" r:id="rId49"/>
+    <hyperlink ref="D26" r:id="rId50"/>
+    <hyperlink ref="B27" r:id="rId51"/>
+    <hyperlink ref="D27" r:id="rId52"/>
+    <hyperlink ref="B28" r:id="rId53"/>
+    <hyperlink ref="D28" r:id="rId54"/>
+    <hyperlink ref="B29" r:id="rId55"/>
+    <hyperlink ref="D29" r:id="rId56"/>
+    <hyperlink ref="B30" r:id="rId57"/>
+    <hyperlink ref="D30" r:id="rId58"/>
+    <hyperlink ref="B31" r:id="rId59"/>
+    <hyperlink ref="D31" r:id="rId60"/>
+    <hyperlink ref="B32" r:id="rId61"/>
+    <hyperlink ref="D32" r:id="rId62"/>
+    <hyperlink ref="B33" r:id="rId63"/>
+    <hyperlink ref="D33" r:id="rId64"/>
+    <hyperlink ref="B34" r:id="rId65"/>
+    <hyperlink ref="D34" r:id="rId66"/>
+    <hyperlink ref="B35" r:id="rId67"/>
+    <hyperlink ref="D35" r:id="rId68"/>
+    <hyperlink ref="B36" r:id="rId69"/>
+    <hyperlink ref="D36" r:id="rId70"/>
+    <hyperlink ref="B37" r:id="rId71"/>
+    <hyperlink ref="D37" r:id="rId72"/>
+    <hyperlink ref="B38" r:id="rId73"/>
+    <hyperlink ref="D38" r:id="rId74"/>
+    <hyperlink ref="B39" r:id="rId75"/>
+    <hyperlink ref="D39" r:id="rId76"/>
+    <hyperlink ref="B40" r:id="rId77"/>
+    <hyperlink ref="D40" r:id="rId78"/>
+    <hyperlink ref="B41" r:id="rId79"/>
+    <hyperlink ref="D41" r:id="rId80"/>
+    <hyperlink ref="B42" r:id="rId81"/>
+    <hyperlink ref="D42" r:id="rId82"/>
+    <hyperlink ref="B43" r:id="rId83"/>
+    <hyperlink ref="D43" r:id="rId84"/>
+    <hyperlink ref="B44" r:id="rId85"/>
+    <hyperlink ref="D44" r:id="rId86"/>
+    <hyperlink ref="B45" r:id="rId87"/>
+    <hyperlink ref="D45" r:id="rId88"/>
+    <hyperlink ref="B46" r:id="rId89"/>
+    <hyperlink ref="D46" r:id="rId90"/>
+    <hyperlink ref="B47" r:id="rId91"/>
+    <hyperlink ref="D47" r:id="rId92"/>
+    <hyperlink ref="B48" r:id="rId93"/>
+    <hyperlink ref="D48" r:id="rId94"/>
+    <hyperlink ref="B49" r:id="rId95"/>
+    <hyperlink ref="D49" r:id="rId96"/>
+    <hyperlink ref="B50" r:id="rId97"/>
+    <hyperlink ref="D50" r:id="rId98"/>
+    <hyperlink ref="B51" r:id="rId99"/>
+    <hyperlink ref="D51" r:id="rId100"/>
+    <hyperlink ref="B52" r:id="rId101"/>
+    <hyperlink ref="D52" r:id="rId102"/>
+    <hyperlink ref="B53" r:id="rId103"/>
+    <hyperlink ref="D53" r:id="rId104"/>
+    <hyperlink ref="B54" r:id="rId105"/>
+    <hyperlink ref="D54" r:id="rId106"/>
+    <hyperlink ref="B55" r:id="rId107"/>
+    <hyperlink ref="D55" r:id="rId108"/>
+    <hyperlink ref="B56" r:id="rId109"/>
+    <hyperlink ref="D56" r:id="rId110"/>
+    <hyperlink ref="B57" r:id="rId111"/>
+    <hyperlink ref="D57" r:id="rId112"/>
+    <hyperlink ref="B58" r:id="rId113"/>
+    <hyperlink ref="D58" r:id="rId114"/>
+    <hyperlink ref="B59" r:id="rId115"/>
+    <hyperlink ref="D59" r:id="rId116"/>
+    <hyperlink ref="B60" r:id="rId117"/>
+    <hyperlink ref="D60" r:id="rId118"/>
+    <hyperlink ref="B61" r:id="rId119"/>
+    <hyperlink ref="D61" r:id="rId120"/>
+    <hyperlink ref="B62" r:id="rId121"/>
+    <hyperlink ref="D62" r:id="rId122"/>
+    <hyperlink ref="B63" r:id="rId123"/>
+    <hyperlink ref="D63" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
